--- a/data/measurements/sentinel.xlsx
+++ b/data/measurements/sentinel.xlsx
@@ -571,10 +571,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
       <c r="D1" s="1"/>
-      <c r="E1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" ht="12.800000000000001">
@@ -584,9 +581,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2"/>
       <c r="D2" s="1"/>
-      <c r="E2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -597,9 +592,7 @@
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3"/>
       <c r="D3" s="1"/>
-      <c r="E3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -610,9 +603,7 @@
       <c r="B4">
         <v>31</v>
       </c>
-      <c r="C4"/>
       <c r="D4" s="1"/>
-      <c r="E4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -623,9 +614,7 @@
       <c r="B5" s="2">
         <v>3.1000000000000001</v>
       </c>
-      <c r="C5"/>
       <c r="D5" s="1"/>
-      <c r="E5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
@@ -634,11 +623,9 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6"/>
+        <v>45</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -649,9 +636,7 @@
       <c r="B7">
         <v>1.333</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="1"/>
-      <c r="E7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -663,9 +648,7 @@
         <f>1/($B$4/60)</f>
         <v>1.9354838709677418</v>
       </c>
-      <c r="C8"/>
       <c r="D8" s="1"/>
-      <c r="E8"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
     </row>
@@ -677,9 +660,7 @@
         <f>1/$B$5</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="C9"/>
       <c r="D9" s="1"/>
-      <c r="E9"/>
     </row>
     <row r="10" ht="12.75">
       <c r="A10" s="1" t="s">
@@ -687,32 +668,21 @@
       </c>
       <c r="B10">
         <f>1/($B$6/60)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C10"/>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10"/>
     </row>
     <row r="11" ht="12.75">
       <c r="A11" s="1"/>
-      <c r="B11"/>
-      <c r="C11"/>
       <c r="D11" s="1"/>
-      <c r="E11"/>
     </row>
     <row r="12" ht="12.75">
       <c r="A12" s="1"/>
-      <c r="B12"/>
-      <c r="C12"/>
       <c r="D12" s="1"/>
-      <c r="E12"/>
     </row>
     <row r="13" ht="12.800000000000001">
       <c r="A13" s="1"/>
-      <c r="B13"/>
-      <c r="C13"/>
       <c r="D13" s="1"/>
-      <c r="E13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -749,12 +719,10 @@
       <c r="B15">
         <v>1.333</v>
       </c>
-      <c r="C15"/>
       <c r="D15" s="1">
-        <f>B15-$B$7</f>
+        <f t="shared" ref="D15:D22" si="0">B15-$B$7</f>
         <v>0</v>
       </c>
-      <c r="E15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -764,22 +732,22 @@
     </row>
     <row r="16" ht="12.800000000000001">
       <c r="A16" s="1">
-        <f>A15-1</f>
+        <f t="shared" ref="A16:A22" si="1">A15-1</f>
         <v>6</v>
       </c>
       <c r="B16">
         <v>1.3400000000000001</v>
       </c>
       <c r="C16">
-        <f>B16-B15</f>
+        <f t="shared" ref="C16:C22" si="2">B16-B15</f>
         <v>0.0070000000000001172</v>
       </c>
       <c r="D16" s="1">
-        <f>B16-$B$7</f>
+        <f t="shared" si="0"/>
         <v>0.0070000000000001172</v>
       </c>
       <c r="E16">
-        <f>($B$3-1-A16)*$B$10</f>
+        <f t="shared" ref="E16:E22" si="3">($B$3-1-A16)*$B$10</f>
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
@@ -791,23 +759,23 @@
     </row>
     <row r="17" ht="12.800000000000001">
       <c r="A17" s="1">
-        <f>A16-1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B17">
         <v>2.9649999999999999</v>
       </c>
       <c r="C17">
-        <f>B17-B16</f>
+        <f t="shared" si="2"/>
         <v>1.6249999999999998</v>
       </c>
       <c r="D17" s="1">
-        <f>B17-$B$7</f>
+        <f t="shared" si="0"/>
         <v>1.6319999999999999</v>
       </c>
       <c r="E17">
-        <f>($B$3-1-A17)*$B$10</f>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -818,23 +786,23 @@
     </row>
     <row r="18" ht="12.800000000000001">
       <c r="A18" s="1">
-        <f>A17-1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B18">
         <v>4.306</v>
       </c>
       <c r="C18">
-        <f>B18-B17</f>
+        <f t="shared" si="2"/>
         <v>1.3410000000000002</v>
       </c>
       <c r="D18" s="1">
-        <f>B18-$B$7</f>
+        <f t="shared" si="0"/>
         <v>2.9729999999999999</v>
       </c>
       <c r="E18">
-        <f>($B$3-1-A18)*$B$10</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -845,23 +813,23 @@
     </row>
     <row r="19" ht="12.800000000000001">
       <c r="A19" s="1">
-        <f>A18-1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B19">
         <v>5.806</v>
       </c>
       <c r="C19">
-        <f>B19-B18</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="D19" s="1">
-        <f>B19-$B$7</f>
+        <f t="shared" si="0"/>
         <v>4.4729999999999999</v>
       </c>
       <c r="E19">
-        <f>($B$3-1-A19)*$B$10</f>
-        <v>4.5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -872,23 +840,23 @@
     </row>
     <row r="20" ht="12.800000000000001">
       <c r="A20" s="1">
-        <f>A19-1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B20">
         <v>7.625</v>
       </c>
       <c r="C20">
-        <f>B20-B19</f>
+        <f t="shared" si="2"/>
         <v>1.819</v>
       </c>
       <c r="D20" s="1">
-        <f>B20-$B$7</f>
+        <f t="shared" si="0"/>
         <v>6.2919999999999998</v>
       </c>
       <c r="E20">
-        <f>($B$3-1-A20)*$B$10</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -899,23 +867,23 @@
     </row>
     <row r="21" ht="12.800000000000001">
       <c r="A21" s="1">
-        <f>A20-1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B21">
         <v>9.0350000000000001</v>
       </c>
       <c r="C21">
-        <f>B21-B20</f>
+        <f t="shared" si="2"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="D21" s="1">
-        <f>B21-$B$7</f>
+        <f t="shared" si="0"/>
         <v>7.702</v>
       </c>
       <c r="E21">
-        <f>($B$3-1-A21)*$B$10</f>
-        <v>7.5</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666661</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -926,23 +894,23 @@
     </row>
     <row r="22" ht="12.800000000000001">
       <c r="A22" s="1">
-        <f>A21-1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B22" s="1">
         <v>10.34</v>
       </c>
       <c r="C22" s="1">
-        <f>B22-B21</f>
+        <f t="shared" si="2"/>
         <v>1.3049999999999997</v>
       </c>
       <c r="D22" s="1">
-        <f>B22-$B$7</f>
+        <f t="shared" si="0"/>
         <v>9.0069999999999997</v>
       </c>
       <c r="E22" s="1">
-        <f>($B$3-1-A22)*$B$10</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F22" s="1"/>
     </row>
